--- a/data/par/11.xlsx
+++ b/data/par/11.xlsx
@@ -481,1127 +481,1127 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>2.079694e-06</v>
+        <v>9.971117999999999e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.111006498336792</v>
+        <v>0.1040058135986328</v>
       </c>
       <c r="B8" t="n">
-        <v>2.077896e-06</v>
+        <v>9.976005e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2240128517150879</v>
+        <v>0.2060117721557617</v>
       </c>
       <c r="B9" t="n">
-        <v>2.078001e-06</v>
+        <v>9.992766e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3000171184539795</v>
+        <v>0.3040173053741455</v>
       </c>
       <c r="B10" t="n">
-        <v>2.078493e-06</v>
+        <v>9.981549e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4070234298706055</v>
+        <v>0.4140236377716064</v>
       </c>
       <c r="B11" t="n">
-        <v>2.080231e-06</v>
+        <v>9.981712e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5080292224884033</v>
+        <v>0.5080287456512451</v>
       </c>
       <c r="B12" t="n">
-        <v>2.079227e-06</v>
+        <v>9.98918e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.602034330368042</v>
+        <v>0.6100349426269531</v>
       </c>
       <c r="B13" t="n">
-        <v>2.079029e-06</v>
+        <v>9.994882e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.7000398635864258</v>
+        <v>0.7120406627655029</v>
       </c>
       <c r="B14" t="n">
-        <v>2.079804e-06</v>
+        <v>9.996913e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8030459880828857</v>
+        <v>0.8010456562042236</v>
       </c>
       <c r="B15" t="n">
-        <v>2.077916e-06</v>
+        <v>9.999673999999999e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9060518741607666</v>
+        <v>0.9010512828826904</v>
       </c>
       <c r="B16" t="n">
-        <v>2.080726e-06</v>
+        <v>9.995505e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.010057687759399</v>
+        <v>1.01105785369873</v>
       </c>
       <c r="B17" t="n">
-        <v>2.07931e-06</v>
+        <v>0.0001000115</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.117063999176025</v>
+        <v>1.110063552856445</v>
       </c>
       <c r="B18" t="n">
-        <v>2.079491e-06</v>
+        <v>0.0001000347</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.217069625854492</v>
+        <v>1.203068733215332</v>
       </c>
       <c r="B19" t="n">
-        <v>2.079188e-06</v>
+        <v>0.0001000181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.306074857711792</v>
+        <v>1.31107497215271</v>
       </c>
       <c r="B20" t="n">
-        <v>2.080031e-06</v>
+        <v>9.999907999999999e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.407080411911011</v>
+        <v>1.405080318450928</v>
       </c>
       <c r="B21" t="n">
-        <v>2.081651e-06</v>
+        <v>9.999884e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.507086277008057</v>
+        <v>1.505086183547974</v>
       </c>
       <c r="B22" t="n">
-        <v>2.080037e-06</v>
+        <v>9.997605e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.606091737747192</v>
+        <v>1.603091716766357</v>
       </c>
       <c r="B23" t="n">
-        <v>2.077415e-06</v>
+        <v>0.0001000354</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.700097322463989</v>
+        <v>1.70709753036499</v>
       </c>
       <c r="B24" t="n">
-        <v>2.076106e-06</v>
+        <v>0.0001000659</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.811103582382202</v>
+        <v>1.800102949142456</v>
       </c>
       <c r="B25" t="n">
-        <v>2.076566e-06</v>
+        <v>0.000100029</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.903108835220337</v>
+        <v>1.914109468460083</v>
       </c>
       <c r="B26" t="n">
-        <v>2.075075e-06</v>
+        <v>0.0001000068</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.004114627838135</v>
+        <v>2.005114555358887</v>
       </c>
       <c r="B27" t="n">
-        <v>2.076485e-06</v>
+        <v>9.997073e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.113120794296265</v>
+        <v>2.10912036895752</v>
       </c>
       <c r="B28" t="n">
-        <v>2.077693e-06</v>
+        <v>0.0001000746</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.208126544952393</v>
+        <v>2.205126047134399</v>
       </c>
       <c r="B29" t="n">
-        <v>2.078215e-06</v>
+        <v>0.0001000629</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.310132265090942</v>
+        <v>2.311132192611694</v>
       </c>
       <c r="B30" t="n">
-        <v>2.076268e-06</v>
+        <v>0.0001000312</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.413138151168823</v>
+        <v>2.418138265609741</v>
       </c>
       <c r="B31" t="n">
-        <v>2.07548e-06</v>
+        <v>0.0001000442</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.501142978668213</v>
+        <v>2.537144899368286</v>
       </c>
       <c r="B32" t="n">
-        <v>2.073786e-06</v>
+        <v>0.0001000568</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.60114860534668</v>
+        <v>2.658151865005493</v>
       </c>
       <c r="B33" t="n">
-        <v>2.07357e-06</v>
+        <v>0.0001000567</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.702154397964478</v>
+        <v>2.778158664703369</v>
       </c>
       <c r="B34" t="n">
-        <v>2.073768e-06</v>
+        <v>0.0001000962</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.807160615921021</v>
+        <v>2.877164363861084</v>
       </c>
       <c r="B35" t="n">
-        <v>2.073381e-06</v>
+        <v>0.0001001066</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.901166200637817</v>
+        <v>2.94916844367981</v>
       </c>
       <c r="B36" t="n">
-        <v>2.07215e-06</v>
+        <v>0.0001000882</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3.009172201156616</v>
+        <v>3.049174547195435</v>
       </c>
       <c r="B37" t="n">
-        <v>2.072137e-06</v>
+        <v>0.000100052</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3.125178813934326</v>
+        <v>3.170181274414062</v>
       </c>
       <c r="B38" t="n">
-        <v>2.074994e-06</v>
+        <v>0.0001000823</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.220184087753296</v>
+        <v>3.270186901092529</v>
       </c>
       <c r="B39" t="n">
-        <v>2.074792e-06</v>
+        <v>9.998964e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.309189319610596</v>
+        <v>3.36619234085083</v>
       </c>
       <c r="B40" t="n">
-        <v>2.077481e-06</v>
+        <v>9.99528e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3.409194946289062</v>
+        <v>3.469198226928711</v>
       </c>
       <c r="B41" t="n">
-        <v>2.077369e-06</v>
+        <v>9.992443e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3.515201091766357</v>
+        <v>3.583204746246338</v>
       </c>
       <c r="B42" t="n">
-        <v>2.075558e-06</v>
+        <v>9.995032e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3.620207071304321</v>
+        <v>3.692211151123047</v>
       </c>
       <c r="B43" t="n">
-        <v>2.071359e-06</v>
+        <v>9.984601999999999e-05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3.731213569641113</v>
+        <v>3.802217483520508</v>
       </c>
       <c r="B44" t="n">
-        <v>2.073763e-06</v>
+        <v>9.989638000000001e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3.810218095779419</v>
+        <v>3.873221635818481</v>
       </c>
       <c r="B45" t="n">
-        <v>2.074658e-06</v>
+        <v>9.980777e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.911223888397217</v>
+        <v>3.983227729797363</v>
       </c>
       <c r="B46" t="n">
-        <v>2.074368e-06</v>
+        <v>9.974837999999999e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.000228881835938</v>
+        <v>4.054231643676758</v>
       </c>
       <c r="B47" t="n">
-        <v>2.07518e-06</v>
+        <v>9.966786e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4.108235120773315</v>
+        <v>4.166238069534302</v>
       </c>
       <c r="B48" t="n">
-        <v>2.077979e-06</v>
+        <v>9.944947e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.211241006851196</v>
+        <v>4.239242315292358</v>
       </c>
       <c r="B49" t="n">
-        <v>2.077496e-06</v>
+        <v>9.93599e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4.301245927810669</v>
+        <v>4.348248720169067</v>
       </c>
       <c r="B50" t="n">
-        <v>2.075982e-06</v>
+        <v>9.923842e-05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4.406252145767212</v>
+        <v>4.421252727508545</v>
       </c>
       <c r="B51" t="n">
-        <v>2.076197e-06</v>
+        <v>9.920818e-05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4.511258125305176</v>
+        <v>4.528259038925171</v>
       </c>
       <c r="B52" t="n">
-        <v>2.075179e-06</v>
+        <v>9.92455e-05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4.60926365852356</v>
+        <v>4.608263254165649</v>
       </c>
       <c r="B53" t="n">
-        <v>2.074956e-06</v>
+        <v>9.919844e-05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4.715269804000854</v>
+        <v>4.711269378662109</v>
       </c>
       <c r="B54" t="n">
-        <v>2.074261e-06</v>
+        <v>9.927506e-05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4.804274797439575</v>
+        <v>4.816275358200073</v>
       </c>
       <c r="B55" t="n">
-        <v>2.072474e-06</v>
+        <v>9.938395000000001e-05</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4.912281036376953</v>
+        <v>4.91628098487854</v>
       </c>
       <c r="B56" t="n">
-        <v>2.069326e-06</v>
+        <v>9.920987e-05</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.015286684036255</v>
+        <v>5.00528621673584</v>
       </c>
       <c r="B57" t="n">
-        <v>2.069422e-06</v>
+        <v>9.926626e-05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.133293628692627</v>
+        <v>5.104291677474976</v>
       </c>
       <c r="B58" t="n">
-        <v>2.068505e-06</v>
+        <v>9.903024e-05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.243299961090088</v>
+        <v>5.208297967910767</v>
       </c>
       <c r="B59" t="n">
-        <v>2.067534e-06</v>
+        <v>9.920646e-05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.349305868148804</v>
+        <v>5.307303428649902</v>
       </c>
       <c r="B60" t="n">
-        <v>2.067206e-06</v>
+        <v>9.929814000000001e-05</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.432310819625854</v>
+        <v>5.407309293746948</v>
       </c>
       <c r="B61" t="n">
-        <v>2.065478e-06</v>
+        <v>9.931524e-05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.541316986083984</v>
+        <v>5.511315107345581</v>
       </c>
       <c r="B62" t="n">
-        <v>2.06661e-06</v>
+        <v>9.928093e-05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5.648323059082031</v>
+        <v>5.609320640563965</v>
       </c>
       <c r="B63" t="n">
-        <v>2.065195e-06</v>
+        <v>9.929767e-05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5.717327117919922</v>
+        <v>5.718327045440674</v>
       </c>
       <c r="B64" t="n">
-        <v>2.062694e-06</v>
+        <v>9.943438e-05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.826333284378052</v>
+        <v>5.81833291053772</v>
       </c>
       <c r="B65" t="n">
-        <v>2.064065e-06</v>
+        <v>9.961174e-05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5.921338558197021</v>
+        <v>5.907337665557861</v>
       </c>
       <c r="B66" t="n">
-        <v>2.064498e-06</v>
+        <v>9.97812e-05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6.009343862533569</v>
+        <v>6.001343250274658</v>
       </c>
       <c r="B67" t="n">
-        <v>2.062277e-06</v>
+        <v>9.994218e-05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6.128350496292114</v>
+        <v>6.109349250793457</v>
       </c>
       <c r="B68" t="n">
-        <v>2.062264e-06</v>
+        <v>9.997054e-05</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6.221355676651001</v>
+        <v>6.208354949951172</v>
       </c>
       <c r="B69" t="n">
-        <v>2.062596e-06</v>
+        <v>9.995959e-05</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6.302360534667969</v>
+        <v>6.30236029624939</v>
       </c>
       <c r="B70" t="n">
-        <v>2.061385e-06</v>
+        <v>0.0001000841</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6.400366067886353</v>
+        <v>6.409366369247437</v>
       </c>
       <c r="B71" t="n">
-        <v>2.061063e-06</v>
+        <v>0.0001001847</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6.50137186050415</v>
+        <v>6.506371974945068</v>
       </c>
       <c r="B72" t="n">
-        <v>2.059363e-06</v>
+        <v>0.0001001202</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6.611378192901611</v>
+        <v>6.606377601623535</v>
       </c>
       <c r="B73" t="n">
-        <v>2.059533e-06</v>
+        <v>0.000100062</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6.702383279800415</v>
+        <v>6.70538330078125</v>
       </c>
       <c r="B74" t="n">
-        <v>2.05937e-06</v>
+        <v>9.998291e-05</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>6.810389518737793</v>
+        <v>6.804388999938965</v>
       </c>
       <c r="B75" t="n">
-        <v>2.057928e-06</v>
+        <v>9.997161e-05</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>6.915395498275757</v>
+        <v>6.913395404815674</v>
       </c>
       <c r="B76" t="n">
-        <v>2.058465e-06</v>
+        <v>9.992935e-05</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>7.001400470733643</v>
+        <v>7.016401290893555</v>
       </c>
       <c r="B77" t="n">
-        <v>2.056948e-06</v>
+        <v>9.98908e-05</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>7.100406169891357</v>
+        <v>7.107406616210938</v>
       </c>
       <c r="B78" t="n">
-        <v>2.056939e-06</v>
+        <v>9.995451999999999e-05</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>7.208412408828735</v>
+        <v>7.218412637710571</v>
       </c>
       <c r="B79" t="n">
-        <v>2.057234e-06</v>
+        <v>0.000100046</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>7.301417827606201</v>
+        <v>7.316418170928955</v>
       </c>
       <c r="B80" t="n">
-        <v>2.05675e-06</v>
+        <v>0.0001000341</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>7.400423288345337</v>
+        <v>7.407423496246338</v>
       </c>
       <c r="B81" t="n">
-        <v>2.057043e-06</v>
+        <v>9.994277e-05</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>7.507429361343384</v>
+        <v>7.518429756164551</v>
       </c>
       <c r="B82" t="n">
-        <v>2.054917e-06</v>
+        <v>9.989351e-05</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7.601434946060181</v>
+        <v>7.616435527801514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.054133e-06</v>
+        <v>9.983495000000001e-05</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>7.700440645217896</v>
+        <v>7.707440853118896</v>
       </c>
       <c r="B84" t="n">
-        <v>2.054932e-06</v>
+        <v>9.980403e-05</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>7.808446645736694</v>
+        <v>7.804446458816528</v>
       </c>
       <c r="B85" t="n">
-        <v>2.053705e-06</v>
+        <v>9.978150999999999e-05</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>7.908452272415161</v>
+        <v>7.910452365875244</v>
       </c>
       <c r="B86" t="n">
-        <v>2.052495e-06</v>
+        <v>9.986423999999999e-05</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>8.01745867729187</v>
+        <v>8.00345778465271</v>
       </c>
       <c r="B87" t="n">
-        <v>2.053202e-06</v>
+        <v>9.990141999999999e-05</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>8.114464282989502</v>
+        <v>8.103463411331177</v>
       </c>
       <c r="B88" t="n">
-        <v>2.049693e-06</v>
+        <v>9.991207999999999e-05</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>8.205469369888306</v>
+        <v>8.210469484329224</v>
       </c>
       <c r="B89" t="n">
-        <v>2.049355e-06</v>
+        <v>9.990589999999999e-05</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>8.318475723266602</v>
+        <v>8.300474643707275</v>
       </c>
       <c r="B90" t="n">
-        <v>2.050292e-06</v>
+        <v>9.988727999999999e-05</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>8.409481048583984</v>
+        <v>8.418481349945068</v>
       </c>
       <c r="B91" t="n">
-        <v>2.046733e-06</v>
+        <v>9.993641e-05</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8.527487754821777</v>
+        <v>8.537488222122192</v>
       </c>
       <c r="B92" t="n">
-        <v>2.04796e-06</v>
+        <v>9.993748e-05</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8.626493453979492</v>
+        <v>8.657495021820068</v>
       </c>
       <c r="B93" t="n">
-        <v>2.050789e-06</v>
+        <v>9.987851e-05</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8.721498966217041</v>
+        <v>8.777501821517944</v>
       </c>
       <c r="B94" t="n">
-        <v>2.050783e-06</v>
+        <v>9.990671e-05</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8.816504240036011</v>
+        <v>8.887508153915405</v>
       </c>
       <c r="B95" t="n">
-        <v>2.049268e-06</v>
+        <v>9.994725e-05</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8.922510385513306</v>
+        <v>8.9935142993927</v>
       </c>
       <c r="B96" t="n">
-        <v>2.04704e-06</v>
+        <v>9.987358e-05</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>9.002514839172363</v>
+        <v>9.062518119812012</v>
       </c>
       <c r="B97" t="n">
-        <v>2.046633e-06</v>
+        <v>9.993062e-05</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9.109521150588989</v>
+        <v>9.167524337768555</v>
       </c>
       <c r="B98" t="n">
-        <v>2.04643e-06</v>
+        <v>0.0001002011</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>9.215527057647705</v>
+        <v>9.285531044006348</v>
       </c>
       <c r="B99" t="n">
-        <v>2.047044e-06</v>
+        <v>9.997789e-05</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9.333534002304077</v>
+        <v>9.404537677764893</v>
       </c>
       <c r="B100" t="n">
-        <v>2.044048e-06</v>
+        <v>9.980805999999999e-05</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>9.454540729522705</v>
+        <v>9.506543636322021</v>
       </c>
       <c r="B101" t="n">
-        <v>2.043526e-06</v>
+        <v>0.0001000492</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>9.57454776763916</v>
+        <v>9.576547384262085</v>
       </c>
       <c r="B102" t="n">
-        <v>2.044531e-06</v>
+        <v>9.998415999999999e-05</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>9.694554567337036</v>
+        <v>9.679553508758545</v>
       </c>
       <c r="B103" t="n">
-        <v>2.043732e-06</v>
+        <v>0.0001000639</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9.814561367034912</v>
+        <v>9.766558647155762</v>
       </c>
       <c r="B104" t="n">
-        <v>2.042929e-06</v>
+        <v>0.0001000148</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>9.934568166732788</v>
+        <v>9.871564388275146</v>
       </c>
       <c r="B105" t="n">
-        <v>2.040103e-06</v>
+        <v>9.986257e-05</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>10.05457520484924</v>
+        <v>9.977570772171021</v>
       </c>
       <c r="B106" t="n">
-        <v>2.041312e-06</v>
+        <v>9.983585e-05</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10.17558193206787</v>
+        <v>10.07757639884949</v>
       </c>
       <c r="B107" t="n">
-        <v>2.042921e-06</v>
+        <v>9.992350999999999e-05</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10.29558897018433</v>
+        <v>10.15558075904846</v>
       </c>
       <c r="B108" t="n">
-        <v>2.0406e-06</v>
+        <v>9.987169e-05</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>10.4155957698822</v>
+        <v>10.26658701896667</v>
       </c>
       <c r="B109" t="n">
-        <v>2.039893e-06</v>
+        <v>9.989655e-05</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>10.53660273551941</v>
+        <v>10.37259316444397</v>
       </c>
       <c r="B110" t="n">
-        <v>2.04423e-06</v>
+        <v>9.988533999999999e-05</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>10.64260864257812</v>
+        <v>10.44059681892395</v>
       </c>
       <c r="B111" t="n">
-        <v>2.038573e-06</v>
+        <v>0.0001000706</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>10.74961495399475</v>
+        <v>10.53260231018066</v>
       </c>
       <c r="B112" t="n">
-        <v>2.03565e-06</v>
+        <v>0.0001000102</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>10.81761860847473</v>
+        <v>10.63960838317871</v>
       </c>
       <c r="B113" t="n">
-        <v>2.036187e-06</v>
+        <v>0.0001000306</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>10.88662266731262</v>
+        <v>10.73561382293701</v>
       </c>
       <c r="B114" t="n">
-        <v>2.032221e-06</v>
+        <v>9.995273e-05</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>10.98962879180908</v>
+        <v>10.80561780929565</v>
       </c>
       <c r="B115" t="n">
-        <v>2.033536e-06</v>
+        <v>0.0001000459</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>11.05663251876831</v>
+        <v>10.90962409973145</v>
       </c>
       <c r="B116" t="n">
-        <v>2.031842e-06</v>
+        <v>9.983125e-05</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>11.12363624572754</v>
+        <v>11.00962972640991</v>
       </c>
       <c r="B117" t="n">
-        <v>2.033341e-06</v>
+        <v>9.993164999999999e-05</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>11.22764205932617</v>
+        <v>11.11863589286804</v>
       </c>
       <c r="B118" t="n">
-        <v>2.034731e-06</v>
+        <v>9.984060999999999e-05</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>11.32764792442322</v>
+        <v>11.21764159202576</v>
       </c>
       <c r="B119" t="n">
-        <v>2.034333e-06</v>
+        <v>9.989991e-05</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>11.42465353012085</v>
+        <v>11.30664658546448</v>
       </c>
       <c r="B120" t="n">
-        <v>2.034859e-06</v>
+        <v>9.988537e-05</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>11.52765917778015</v>
+        <v>11.40665245056152</v>
       </c>
       <c r="B121" t="n">
-        <v>2.037254e-06</v>
+        <v>9.985112e-05</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>11.6276650428772</v>
+        <v>11.50865817070007</v>
       </c>
       <c r="B122" t="n">
-        <v>2.035041e-06</v>
+        <v>9.985183999999999e-05</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>11.72467064857483</v>
+        <v>11.61266422271729</v>
       </c>
       <c r="B123" t="n">
-        <v>2.034547e-06</v>
+        <v>9.980629999999999e-05</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>11.82967662811279</v>
+        <v>11.71967029571533</v>
       </c>
       <c r="B124" t="n">
-        <v>2.037687e-06</v>
+        <v>9.987119000000001e-05</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>11.89668035507202</v>
+        <v>11.81167554855347</v>
       </c>
       <c r="B125" t="n">
-        <v>2.032962e-06</v>
+        <v>9.994416e-05</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>11.98368549346924</v>
+        <v>11.90968108177185</v>
       </c>
       <c r="B126" t="n">
-        <v>2.024778e-06</v>
+        <v>9.989266e-05</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>12.0536892414093</v>
+        <v>12.01968741416931</v>
       </c>
       <c r="B127" t="n">
-        <v>2.031326e-06</v>
+        <v>9.988667e-05</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>12.15869545936584</v>
+        <v>12.11469268798828</v>
       </c>
       <c r="B128" t="n">
-        <v>2.01276e-06</v>
+        <v>9.983806999999999e-05</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>12.28470277786255</v>
+        <v>12.20769810676575</v>
       </c>
       <c r="B129" t="n">
-        <v>2.053167e-06</v>
+        <v>9.986655999999999e-05</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>12.35370659828186</v>
+        <v>12.30570387840271</v>
       </c>
       <c r="B130" t="n">
-        <v>2.063495e-06</v>
+        <v>9.987603000000001e-05</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>12.45971274375916</v>
+        <v>12.41170978546143</v>
       </c>
       <c r="B131" t="n">
-        <v>2.044204e-06</v>
+        <v>9.990692e-05</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>12.52871656417847</v>
+        <v>12.50071501731873</v>
       </c>
       <c r="B132" t="n">
-        <v>2.043932e-06</v>
+        <v>9.980282999999999e-05</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>12.63672280311584</v>
+        <v>12.61772155761719</v>
       </c>
       <c r="B133" t="n">
-        <v>2.049668e-06</v>
+        <v>9.986916e-05</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>12.73472833633423</v>
+        <v>12.72772812843323</v>
       </c>
       <c r="B134" t="n">
-        <v>2.050902e-06</v>
+        <v>9.978070000000001e-05</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>12.80373239517212</v>
+        <v>12.83373379707336</v>
       </c>
       <c r="B135" t="n">
-        <v>2.055511e-06</v>
+        <v>9.984029e-05</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>12.90673828125</v>
+        <v>12.90273785591125</v>
       </c>
       <c r="B136" t="n">
-        <v>2.047635e-06</v>
+        <v>9.981886e-05</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>13.0077440738678</v>
+        <v>13.01074409484863</v>
       </c>
       <c r="B137" t="n">
-        <v>2.060123e-06</v>
+        <v>9.980077e-05</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>13.10574984550476</v>
+        <v>13.10774946212769</v>
       </c>
       <c r="B138" t="n">
-        <v>2.0562e-06</v>
+        <v>9.985066000000001e-05</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>13.20975565910339</v>
+        <v>13.20475506782532</v>
       </c>
       <c r="B139" t="n">
-        <v>2.045582e-06</v>
+        <v>9.996089999999999e-05</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>13.30976128578186</v>
+        <v>13.31176137924194</v>
       </c>
       <c r="B140" t="n">
-        <v>2.048307e-06</v>
+        <v>9.986962e-05</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>13.41876769065857</v>
+        <v>13.40076637268066</v>
       </c>
       <c r="B141" t="n">
-        <v>2.050248e-06</v>
+        <v>9.974294000000001e-05</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>13.51177287101746</v>
+        <v>13.51477289199829</v>
       </c>
       <c r="B142" t="n">
-        <v>2.049434e-06</v>
+        <v>9.973112999999999e-05</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>13.60177803039551</v>
+        <v>13.61477851867676</v>
       </c>
       <c r="B143" t="n">
-        <v>2.051026e-06</v>
+        <v>9.969857000000001e-05</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>13.70878410339355</v>
+        <v>13.70578384399414</v>
       </c>
       <c r="B144" t="n">
-        <v>2.04206e-06</v>
+        <v>9.968476e-05</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>13.81178998947144</v>
+        <v>13.80578970909119</v>
       </c>
       <c r="B145" t="n">
-        <v>2.039471e-06</v>
+        <v>9.976656000000001e-05</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>13.90179514884949</v>
+        <v>13.91079545021057</v>
       </c>
       <c r="B146" t="n">
-        <v>2.048549e-06</v>
+        <v>9.983472e-05</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>14.00180101394653</v>
+        <v>14.00680112838745</v>
       </c>
       <c r="B147" t="n">
-        <v>2.029704e-06</v>
+        <v>9.98097e-05</v>
       </c>
     </row>
     <row r="148">
@@ -1609,95 +1609,95 @@
         <v>14.10680675506592</v>
       </c>
       <c r="B148" t="n">
-        <v>2.067608e-06</v>
+        <v>9.978875e-05</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>14.22681379318237</v>
+        <v>14.21181273460388</v>
       </c>
       <c r="B149" t="n">
-        <v>2.062645e-06</v>
+        <v>9.983453e-05</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>14.33782005310059</v>
+        <v>14.30181813240051</v>
       </c>
       <c r="B150" t="n">
-        <v>2.050162e-06</v>
+        <v>9.980235e-05</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>14.43582558631897</v>
+        <v>14.41982460021973</v>
       </c>
       <c r="B151" t="n">
-        <v>2.060899e-06</v>
+        <v>9.973555e-05</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>14.53783178329468</v>
+        <v>14.52283048629761</v>
       </c>
       <c r="B152" t="n">
-        <v>2.054226e-06</v>
+        <v>9.97124e-05</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>14.63283681869507</v>
+        <v>14.63083672523499</v>
       </c>
       <c r="B153" t="n">
-        <v>2.066407e-06</v>
+        <v>9.966359e-05</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>14.73784303665161</v>
+        <v>14.70084071159363</v>
       </c>
       <c r="B154" t="n">
-        <v>2.062901e-06</v>
+        <v>9.968396e-05</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>14.82984828948975</v>
+        <v>14.80884695053101</v>
       </c>
       <c r="B155" t="n">
-        <v>2.060842e-06</v>
+        <v>9.971629e-05</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>14.92385363578796</v>
+        <v>14.90785241127014</v>
       </c>
       <c r="B156" t="n">
-        <v>2.059521e-06</v>
+        <v>9.977822999999999e-05</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>15.00685834884644</v>
+        <v>15.00985836982727</v>
       </c>
       <c r="B157" t="n">
-        <v>2.059984e-06</v>
+        <v>9.984819e-05</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>15.11286449432373</v>
+        <v>15.10786390304565</v>
       </c>
       <c r="B158" t="n">
-        <v>2.059992e-06</v>
+        <v>9.986694999999999e-05</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>15.21987056732178</v>
+        <v>15.20986986160278</v>
       </c>
       <c r="B159" t="n">
-        <v>2.061763e-06</v>
+        <v>9.982475e-05</v>
       </c>
     </row>
     <row r="160">
@@ -1705,1671 +1705,1671 @@
         <v>15.30987572669983</v>
       </c>
       <c r="B160" t="n">
-        <v>2.063163e-06</v>
+        <v>9.986058e-05</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>15.42688226699829</v>
+        <v>15.41288137435913</v>
       </c>
       <c r="B161" t="n">
-        <v>2.063527e-06</v>
+        <v>9.989634e-05</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>15.52088785171509</v>
+        <v>15.50388646125793</v>
       </c>
       <c r="B162" t="n">
-        <v>2.072865e-06</v>
+        <v>9.985495e-05</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>15.60089230537415</v>
+        <v>15.60889267921448</v>
       </c>
       <c r="B163" t="n">
-        <v>2.071768e-06</v>
+        <v>9.986359e-05</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>15.70489835739136</v>
+        <v>15.71289873123169</v>
       </c>
       <c r="B164" t="n">
-        <v>2.070286e-06</v>
+        <v>0.0001000682</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>15.80490398406982</v>
+        <v>15.80290365219116</v>
       </c>
       <c r="B165" t="n">
-        <v>2.063106e-06</v>
+        <v>0.0001001947</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>15.90891003608704</v>
+        <v>15.90590977668762</v>
       </c>
       <c r="B166" t="n">
-        <v>2.065577e-06</v>
+        <v>0.0001001038</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>16.00791573524475</v>
+        <v>16.01191568374634</v>
       </c>
       <c r="B167" t="n">
-        <v>2.061696e-06</v>
+        <v>9.98414e-05</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>16.11992216110229</v>
+        <v>16.10392117500305</v>
       </c>
       <c r="B168" t="n">
-        <v>2.051779e-06</v>
+        <v>9.98277e-05</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>16.20092678070068</v>
+        <v>16.22092771530151</v>
       </c>
       <c r="B169" t="n">
-        <v>2.048338e-06</v>
+        <v>9.979978e-05</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>16.30893278121948</v>
+        <v>16.31593298912048</v>
       </c>
       <c r="B170" t="n">
-        <v>2.050179e-06</v>
+        <v>9.966244e-05</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>16.41793894767761</v>
+        <v>16.40693831443787</v>
       </c>
       <c r="B171" t="n">
-        <v>2.055334e-06</v>
+        <v>9.95968e-05</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>16.51694464683533</v>
+        <v>16.50694394111633</v>
       </c>
       <c r="B172" t="n">
-        <v>2.061855e-06</v>
+        <v>9.953689e-05</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>16.60895013809204</v>
+        <v>16.61495041847229</v>
       </c>
       <c r="B173" t="n">
-        <v>2.065643e-06</v>
+        <v>9.950995e-05</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>16.71795630455017</v>
+        <v>16.70495533943176</v>
       </c>
       <c r="B174" t="n">
-        <v>2.064113e-06</v>
+        <v>9.952846e-05</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>16.81696176528931</v>
+        <v>16.80996131896973</v>
       </c>
       <c r="B175" t="n">
-        <v>2.05961e-06</v>
+        <v>9.942984e-05</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>16.90796709060669</v>
+        <v>16.9179675579071</v>
       </c>
       <c r="B176" t="n">
-        <v>2.059447e-06</v>
+        <v>9.945765e-05</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>17.00997304916382</v>
+        <v>17.00697255134583</v>
       </c>
       <c r="B177" t="n">
-        <v>2.055574e-06</v>
+        <v>9.949130999999999e-05</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>17.10097813606262</v>
+        <v>17.11297869682312</v>
       </c>
       <c r="B178" t="n">
-        <v>2.050656e-06</v>
+        <v>9.948144e-05</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>17.20498418807983</v>
+        <v>17.21998476982117</v>
       </c>
       <c r="B179" t="n">
-        <v>2.051124e-06</v>
+        <v>9.955915e-05</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>17.30699014663696</v>
+        <v>17.32099056243896</v>
       </c>
       <c r="B180" t="n">
-        <v>2.044081e-06</v>
+        <v>9.95727e-05</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>17.41199588775635</v>
+        <v>17.42699670791626</v>
       </c>
       <c r="B181" t="n">
-        <v>2.037646e-06</v>
+        <v>9.957584e-05</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>17.50300097465515</v>
+        <v>17.50800156593323</v>
       </c>
       <c r="B182" t="n">
-        <v>2.037879e-06</v>
+        <v>9.957784e-05</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>17.61100721359253</v>
+        <v>17.62900829315186</v>
       </c>
       <c r="B183" t="n">
-        <v>2.034497e-06</v>
+        <v>9.958620000000001e-05</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>17.71601343154907</v>
+        <v>17.73401403427124</v>
       </c>
       <c r="B184" t="n">
-        <v>2.03817e-06</v>
+        <v>9.955584e-05</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>17.80601859092712</v>
+        <v>17.84302043914795</v>
       </c>
       <c r="B185" t="n">
-        <v>2.043336e-06</v>
+        <v>9.961822e-05</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>17.92002511024475</v>
+        <v>17.91302442550659</v>
       </c>
       <c r="B186" t="n">
-        <v>2.042422e-06</v>
+        <v>9.96841e-05</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>18.00903010368347</v>
+        <v>18.0220308303833</v>
       </c>
       <c r="B187" t="n">
-        <v>2.043844e-06</v>
+        <v>9.969137e-05</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>18.10203552246094</v>
+        <v>18.10403561592102</v>
       </c>
       <c r="B188" t="n">
-        <v>2.043904e-06</v>
+        <v>9.962784e-05</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>18.2020411491394</v>
+        <v>18.21004152297974</v>
       </c>
       <c r="B189" t="n">
-        <v>2.042875e-06</v>
+        <v>9.967168e-05</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>18.30204701423645</v>
+        <v>18.30504703521729</v>
       </c>
       <c r="B190" t="n">
-        <v>2.044592e-06</v>
+        <v>9.961236000000001e-05</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>18.40605282783508</v>
+        <v>18.41305303573608</v>
       </c>
       <c r="B191" t="n">
-        <v>2.041013e-06</v>
+        <v>9.95913e-05</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>18.50705862045288</v>
+        <v>18.50305843353271</v>
       </c>
       <c r="B192" t="n">
-        <v>2.034725e-06</v>
+        <v>9.958952999999999e-05</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>18.6080641746521</v>
+        <v>18.62006497383118</v>
       </c>
       <c r="B193" t="n">
-        <v>2.03489e-06</v>
+        <v>9.959531000000001e-05</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>18.70006966590881</v>
+        <v>18.71607041358948</v>
       </c>
       <c r="B194" t="n">
-        <v>2.035131e-06</v>
+        <v>9.963517e-05</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>18.80007529258728</v>
+        <v>18.80607557296753</v>
       </c>
       <c r="B195" t="n">
-        <v>2.032602e-06</v>
+        <v>9.968849000000001e-05</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>18.91008162498474</v>
+        <v>18.92108201980591</v>
       </c>
       <c r="B196" t="n">
-        <v>2.030804e-06</v>
+        <v>9.972561e-05</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>19.00108695030212</v>
+        <v>19.00108671188354</v>
       </c>
       <c r="B197" t="n">
-        <v>2.027492e-06</v>
+        <v>9.972641e-05</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>19.10209250450134</v>
+        <v>19.10709261894226</v>
       </c>
       <c r="B198" t="n">
-        <v>2.03247e-06</v>
+        <v>9.973658e-05</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>19.21109890937805</v>
+        <v>19.20709848403931</v>
       </c>
       <c r="B199" t="n">
-        <v>2.037527e-06</v>
+        <v>9.969747e-05</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>19.30010390281677</v>
+        <v>19.31410479545593</v>
       </c>
       <c r="B200" t="n">
-        <v>2.04116e-06</v>
+        <v>9.973174e-05</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>19.41811060905457</v>
+        <v>19.40510988235474</v>
       </c>
       <c r="B201" t="n">
-        <v>2.043942e-06</v>
+        <v>9.979505000000001e-05</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>19.51411604881287</v>
+        <v>19.52011632919312</v>
       </c>
       <c r="B202" t="n">
-        <v>2.044092e-06</v>
+        <v>9.976099e-05</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>19.6041214466095</v>
+        <v>19.61212158203125</v>
       </c>
       <c r="B203" t="n">
-        <v>2.042584e-06</v>
+        <v>9.978283e-05</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>19.71912789344788</v>
+        <v>19.70312666893005</v>
       </c>
       <c r="B204" t="n">
-        <v>2.044219e-06</v>
+        <v>9.97475e-05</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>19.80913305282593</v>
+        <v>19.82013344764709</v>
       </c>
       <c r="B205" t="n">
-        <v>2.0446e-06</v>
+        <v>9.975515000000001e-05</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>19.92713975906372</v>
+        <v>19.91913914680481</v>
       </c>
       <c r="B206" t="n">
-        <v>2.042969e-06</v>
+        <v>9.979986e-05</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>20.02614545822144</v>
+        <v>20.00714421272278</v>
       </c>
       <c r="B207" t="n">
-        <v>2.0401e-06</v>
+        <v>9.977024000000001e-05</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>20.12815141677856</v>
+        <v>20.10815000534058</v>
       </c>
       <c r="B208" t="n">
-        <v>2.038649e-06</v>
+        <v>9.981226e-05</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>20.23415732383728</v>
+        <v>20.20115518569946</v>
       </c>
       <c r="B209" t="n">
-        <v>2.040051e-06</v>
+        <v>9.98423e-05</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>20.30516147613525</v>
+        <v>20.30016088485718</v>
       </c>
       <c r="B210" t="n">
-        <v>2.039877e-06</v>
+        <v>9.980644e-05</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>20.41116738319397</v>
+        <v>20.4071671962738</v>
       </c>
       <c r="B211" t="n">
-        <v>2.039759e-06</v>
+        <v>9.978184e-05</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>20.50317287445068</v>
+        <v>20.5151731967926</v>
       </c>
       <c r="B212" t="n">
-        <v>2.0389e-06</v>
+        <v>9.984601999999999e-05</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>20.60517859458923</v>
+        <v>20.60617852210999</v>
       </c>
       <c r="B213" t="n">
-        <v>2.041392e-06</v>
+        <v>9.982613e-05</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>20.71018433570862</v>
+        <v>20.72118520736694</v>
       </c>
       <c r="B214" t="n">
-        <v>2.032768e-06</v>
+        <v>9.976426999999999e-05</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>20.80118989944458</v>
+        <v>20.80218982696533</v>
       </c>
       <c r="B215" t="n">
-        <v>2.034585e-06</v>
+        <v>9.974388e-05</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>20.9021954536438</v>
+        <v>20.90819573402405</v>
       </c>
       <c r="B216" t="n">
-        <v>2.039435e-06</v>
+        <v>9.976384e-05</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>21.01020193099976</v>
+        <v>21.00020122528076</v>
       </c>
       <c r="B217" t="n">
-        <v>2.03863e-06</v>
+        <v>9.972232e-05</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>21.10220694541931</v>
+        <v>21.11220765113831</v>
       </c>
       <c r="B218" t="n">
-        <v>2.039921e-06</v>
+        <v>9.970689000000001e-05</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>21.21921348571777</v>
+        <v>21.20321273803711</v>
       </c>
       <c r="B219" t="n">
-        <v>2.038938e-06</v>
+        <v>9.969756e-05</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>21.3092188835144</v>
+        <v>21.31321907043457</v>
       </c>
       <c r="B220" t="n">
-        <v>2.038493e-06</v>
+        <v>9.966158999999999e-05</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>21.42822575569153</v>
+        <v>21.42022490501404</v>
       </c>
       <c r="B221" t="n">
-        <v>2.037538e-06</v>
+        <v>9.963560000000001e-05</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>21.50022983551025</v>
+        <v>21.52323079109192</v>
       </c>
       <c r="B222" t="n">
-        <v>2.038678e-06</v>
+        <v>9.957598e-05</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>21.60923600196838</v>
+        <v>21.62823700904846</v>
       </c>
       <c r="B223" t="n">
-        <v>2.038134e-06</v>
+        <v>9.955444000000001e-05</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>21.70124125480652</v>
+        <v>21.70924162864685</v>
       </c>
       <c r="B224" t="n">
-        <v>2.037904e-06</v>
+        <v>9.96344e-05</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>21.81824803352356</v>
+        <v>21.83024859428406</v>
       </c>
       <c r="B225" t="n">
-        <v>2.037919e-06</v>
+        <v>9.967382e-05</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>21.9002525806427</v>
+        <v>21.93025422096252</v>
       </c>
       <c r="B226" t="n">
-        <v>2.036855e-06</v>
+        <v>9.962283000000001e-05</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>22.00525879859924</v>
+        <v>22.02125954627991</v>
       </c>
       <c r="B227" t="n">
-        <v>2.038185e-06</v>
+        <v>9.949805000000001e-05</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>22.10726451873779</v>
+        <v>22.12226533889771</v>
       </c>
       <c r="B228" t="n">
-        <v>2.038898e-06</v>
+        <v>9.935763999999999e-05</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>22.20927023887634</v>
+        <v>22.22827124595642</v>
       </c>
       <c r="B229" t="n">
-        <v>2.040153e-06</v>
+        <v>9.929731e-05</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>22.31527638435364</v>
+        <v>22.30927586555481</v>
       </c>
       <c r="B230" t="n">
-        <v>2.041272e-06</v>
+        <v>9.930071e-05</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>22.42328262329102</v>
+        <v>22.43028283119202</v>
       </c>
       <c r="B231" t="n">
-        <v>2.042665e-06</v>
+        <v>9.930741e-05</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>22.50328707695007</v>
+        <v>22.53028845787048</v>
       </c>
       <c r="B232" t="n">
-        <v>2.041525e-06</v>
+        <v>9.928796e-05</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>22.62529397010803</v>
+        <v>22.61929368972778</v>
       </c>
       <c r="B233" t="n">
-        <v>2.041421e-06</v>
+        <v>9.922815e-05</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>22.74430108070374</v>
+        <v>22.7082986831665</v>
       </c>
       <c r="B234" t="n">
-        <v>2.041919e-06</v>
+        <v>9.925015e-05</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>22.86430764198303</v>
+        <v>22.80830430984497</v>
       </c>
       <c r="B235" t="n">
-        <v>2.043448e-06</v>
+        <v>9.91434e-05</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>22.98331475257874</v>
+        <v>22.91331028938293</v>
       </c>
       <c r="B236" t="n">
-        <v>2.043067e-06</v>
+        <v>9.917590999999999e-05</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>23.10432147979736</v>
+        <v>23.00431561470032</v>
       </c>
       <c r="B237" t="n">
-        <v>2.042965e-06</v>
+        <v>9.916938e-05</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>23.22332835197449</v>
+        <v>23.10832166671753</v>
       </c>
       <c r="B238" t="n">
-        <v>2.045136e-06</v>
+        <v>9.906372999999999e-05</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>23.34433531761169</v>
+        <v>23.20032691955566</v>
       </c>
       <c r="B239" t="n">
-        <v>2.044736e-06</v>
+        <v>9.909882e-05</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>23.46434211730957</v>
+        <v>23.30233287811279</v>
       </c>
       <c r="B240" t="n">
-        <v>2.04378e-06</v>
+        <v>9.90543e-05</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>23.58434891700745</v>
+        <v>23.40033841133118</v>
       </c>
       <c r="B241" t="n">
-        <v>2.043476e-06</v>
+        <v>9.903753e-05</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>23.70335555076599</v>
+        <v>23.50734448432922</v>
       </c>
       <c r="B242" t="n">
-        <v>2.043283e-06</v>
+        <v>9.917576e-05</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>23.82436275482178</v>
+        <v>23.61335062980652</v>
       </c>
       <c r="B243" t="n">
-        <v>2.044236e-06</v>
+        <v>9.929841e-05</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>23.94436955451965</v>
+        <v>23.71935653686523</v>
       </c>
       <c r="B244" t="n">
-        <v>2.046452e-06</v>
+        <v>9.927306e-05</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>24.06437659263611</v>
+        <v>23.81636214256287</v>
       </c>
       <c r="B245" t="n">
-        <v>2.047546e-06</v>
+        <v>9.918856e-05</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>24.17038249969482</v>
+        <v>23.90736722946167</v>
       </c>
       <c r="B246" t="n">
-        <v>2.047975e-06</v>
+        <v>9.914357e-05</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>24.27738857269287</v>
+        <v>24.0043728351593</v>
       </c>
       <c r="B247" t="n">
-        <v>2.051278e-06</v>
+        <v>9.91499e-05</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>24.37339425086975</v>
+        <v>24.10237836837769</v>
       </c>
       <c r="B248" t="n">
-        <v>2.052064e-06</v>
+        <v>9.918842e-05</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>24.44139790534973</v>
+        <v>24.20538425445557</v>
       </c>
       <c r="B249" t="n">
-        <v>2.053594e-06</v>
+        <v>9.930922e-05</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>24.54840397834778</v>
+        <v>24.30338978767395</v>
       </c>
       <c r="B250" t="n">
-        <v>2.054737e-06</v>
+        <v>9.933122e-05</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>24.61640810966492</v>
+        <v>24.40939617156982</v>
       </c>
       <c r="B251" t="n">
-        <v>2.054546e-06</v>
+        <v>9.937678000000001e-05</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>24.68441200256348</v>
+        <v>24.50340127944946</v>
       </c>
       <c r="B252" t="n">
-        <v>2.052388e-06</v>
+        <v>9.95177e-05</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>24.79041790962219</v>
+        <v>24.60340690612793</v>
       </c>
       <c r="B253" t="n">
-        <v>2.051754e-06</v>
+        <v>9.959446e-05</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>24.85842180252075</v>
+        <v>24.7094132900238</v>
       </c>
       <c r="B254" t="n">
-        <v>2.052698e-06</v>
+        <v>9.965585e-05</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>24.95742750167847</v>
+        <v>24.80941891670227</v>
       </c>
       <c r="B255" t="n">
-        <v>2.051662e-06</v>
+        <v>9.969064999999999e-05</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>25.06043338775635</v>
+        <v>24.9184250831604</v>
       </c>
       <c r="B256" t="n">
-        <v>2.052926e-06</v>
+        <v>9.975638e-05</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>25.13143754005432</v>
+        <v>25.01543092727661</v>
       </c>
       <c r="B257" t="n">
-        <v>2.052876e-06</v>
+        <v>9.983322999999999e-05</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>25.23844361305237</v>
+        <v>25.10443592071533</v>
       </c>
       <c r="B258" t="n">
-        <v>2.050137e-06</v>
+        <v>9.984786e-05</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>25.30744767189026</v>
+        <v>25.21844244003296</v>
       </c>
       <c r="B259" t="n">
-        <v>2.049564e-06</v>
+        <v>9.987549e-05</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>25.39545273780823</v>
+        <v>25.31844806671143</v>
       </c>
       <c r="B260" t="n">
-        <v>2.048985e-06</v>
+        <v>9.986961e-05</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>25.48145747184753</v>
+        <v>25.4084529876709</v>
       </c>
       <c r="B261" t="n">
-        <v>2.050164e-06</v>
+        <v>9.983289e-05</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>25.55046153068542</v>
+        <v>25.50545859336853</v>
       </c>
       <c r="B262" t="n">
-        <v>2.049108e-06</v>
+        <v>9.979006e-05</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>25.65846753120422</v>
+        <v>25.61046457290649</v>
       </c>
       <c r="B263" t="n">
-        <v>2.053159e-06</v>
+        <v>9.980707999999999e-05</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>25.74647259712219</v>
+        <v>25.70046997070312</v>
       </c>
       <c r="B264" t="n">
-        <v>2.054758e-06</v>
+        <v>9.975101e-05</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>25.84347820281982</v>
+        <v>25.81747651100159</v>
       </c>
       <c r="B265" t="n">
-        <v>2.055479e-06</v>
+        <v>9.95601e-05</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>25.92048263549805</v>
+        <v>25.93648362159729</v>
       </c>
       <c r="B266" t="n">
-        <v>2.055751e-06</v>
+        <v>9.94058e-05</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>26.02348852157593</v>
+        <v>26.04948973655701</v>
       </c>
       <c r="B267" t="n">
-        <v>2.054093e-06</v>
+        <v>9.948378e-05</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>26.1064932346344</v>
+        <v>26.15049576759338</v>
       </c>
       <c r="B268" t="n">
-        <v>2.054377e-06</v>
+        <v>9.956921e-05</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>26.20149874687195</v>
+        <v>26.24050068855286</v>
       </c>
       <c r="B269" t="n">
-        <v>2.055535e-06</v>
+        <v>9.966459e-05</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>26.30150437355042</v>
+        <v>26.33050584793091</v>
       </c>
       <c r="B270" t="n">
-        <v>2.053121e-06</v>
+        <v>9.970109000000001e-05</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>26.40851044654846</v>
+        <v>26.42451143264771</v>
       </c>
       <c r="B271" t="n">
-        <v>2.056013e-06</v>
+        <v>9.970028e-05</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>26.50651597976685</v>
+        <v>26.50351572036743</v>
       </c>
       <c r="B272" t="n">
-        <v>2.054856e-06</v>
+        <v>9.972291e-05</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>26.61752247810364</v>
+        <v>26.60452175140381</v>
       </c>
       <c r="B273" t="n">
-        <v>2.05496e-06</v>
+        <v>9.967863999999999e-05</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>26.71052765846252</v>
+        <v>26.70252704620361</v>
       </c>
       <c r="B274" t="n">
-        <v>2.056683e-06</v>
+        <v>9.968629e-05</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>26.80953335762024</v>
+        <v>26.81053328514099</v>
       </c>
       <c r="B275" t="n">
-        <v>2.056487e-06</v>
+        <v>9.969573e-05</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>26.91853976249695</v>
+        <v>26.90453886985779</v>
       </c>
       <c r="B276" t="n">
-        <v>2.056395e-06</v>
+        <v>9.962144e-05</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>27.00854468345642</v>
+        <v>27.0035445690155</v>
       </c>
       <c r="B277" t="n">
-        <v>2.057525e-06</v>
+        <v>9.948898999999999e-05</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>27.10655045509338</v>
+        <v>27.10855031013489</v>
       </c>
       <c r="B278" t="n">
-        <v>2.057144e-06</v>
+        <v>9.954828e-05</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>27.20555591583252</v>
+        <v>27.20355582237244</v>
       </c>
       <c r="B279" t="n">
-        <v>2.058167e-06</v>
+        <v>9.957953e-05</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>27.31156229972839</v>
+        <v>27.30256152153015</v>
       </c>
       <c r="B280" t="n">
-        <v>2.059509e-06</v>
+        <v>9.965772999999999e-05</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>27.40056729316711</v>
+        <v>27.41056776046753</v>
       </c>
       <c r="B281" t="n">
-        <v>2.058453e-06</v>
+        <v>9.971383e-05</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>27.51657390594482</v>
+        <v>27.5055730342865</v>
       </c>
       <c r="B282" t="n">
-        <v>2.060245e-06</v>
+        <v>9.972443e-05</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>27.62558007240295</v>
+        <v>27.60457873344421</v>
       </c>
       <c r="B283" t="n">
-        <v>2.059023e-06</v>
+        <v>9.978621e-05</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>27.73158597946167</v>
+        <v>27.70758461952209</v>
       </c>
       <c r="B284" t="n">
-        <v>2.060802e-06</v>
+        <v>9.981792000000001e-05</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>27.80259013175964</v>
+        <v>27.81359076499939</v>
       </c>
       <c r="B285" t="n">
-        <v>2.059339e-06</v>
+        <v>9.977552e-05</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>27.90959644317627</v>
+        <v>27.91359639167786</v>
       </c>
       <c r="B286" t="n">
-        <v>2.060049e-06</v>
+        <v>9.980407e-05</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>28.00860214233398</v>
+        <v>28.01560235023499</v>
       </c>
       <c r="B287" t="n">
-        <v>2.061162e-06</v>
+        <v>9.973232e-05</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>28.10560774803162</v>
+        <v>28.10460734367371</v>
       </c>
       <c r="B288" t="n">
-        <v>2.062105e-06</v>
+        <v>9.965247999999999e-05</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>28.20861339569092</v>
+        <v>28.2056131362915</v>
       </c>
       <c r="B289" t="n">
-        <v>2.062874e-06</v>
+        <v>9.959591999999999e-05</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>28.30861926078796</v>
+        <v>28.31061911582947</v>
       </c>
       <c r="B290" t="n">
-        <v>2.063558e-06</v>
+        <v>9.943705999999999e-05</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>28.42262554168701</v>
+        <v>28.4056248664856</v>
       </c>
       <c r="B291" t="n">
-        <v>2.062533e-06</v>
+        <v>9.94746e-05</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>28.50363039970398</v>
+        <v>28.50663042068481</v>
       </c>
       <c r="B292" t="n">
-        <v>2.062209e-06</v>
+        <v>9.928688000000001e-05</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>28.61163640022278</v>
+        <v>28.61263632774353</v>
       </c>
       <c r="B293" t="n">
-        <v>2.062841e-06</v>
+        <v>9.917008999999999e-05</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>28.72064280509949</v>
+        <v>28.705641746521</v>
       </c>
       <c r="B294" t="n">
-        <v>2.063761e-06</v>
+        <v>9.914433999999999e-05</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>28.80564761161804</v>
+        <v>28.80864763259888</v>
       </c>
       <c r="B295" t="n">
-        <v>2.065735e-06</v>
+        <v>9.908092e-05</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>28.9256546497345</v>
+        <v>28.91365361213684</v>
       </c>
       <c r="B296" t="n">
-        <v>2.065982e-06</v>
+        <v>9.911425e-05</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>29.04566144943237</v>
+        <v>29.00265884399414</v>
       </c>
       <c r="B297" t="n">
-        <v>2.064076e-06</v>
+        <v>9.909729e-05</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>29.16566801071167</v>
+        <v>29.11466503143311</v>
       </c>
       <c r="B298" t="n">
-        <v>2.064245e-06</v>
+        <v>9.920689999999999e-05</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>29.26567387580872</v>
+        <v>29.20367026329041</v>
       </c>
       <c r="B299" t="n">
-        <v>2.06452e-06</v>
+        <v>9.92093e-05</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>29.33467769622803</v>
+        <v>29.30867624282837</v>
       </c>
       <c r="B300" t="n">
-        <v>2.064732e-06</v>
+        <v>9.920096e-05</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>29.44168400764465</v>
+        <v>29.405681848526</v>
       </c>
       <c r="B301" t="n">
-        <v>2.066457e-06</v>
+        <v>9.921215e-05</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>29.51068806648254</v>
+        <v>29.50268745422363</v>
       </c>
       <c r="B302" t="n">
-        <v>2.066417e-06</v>
+        <v>9.925159e-05</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>29.61869406700134</v>
+        <v>29.60569310188293</v>
       </c>
       <c r="B303" t="n">
-        <v>2.066581e-06</v>
+        <v>9.92837e-05</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>29.70769929885864</v>
+        <v>29.70469903945923</v>
       </c>
       <c r="B304" t="n">
-        <v>2.067513e-06</v>
+        <v>9.920318e-05</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>29.82670593261719</v>
+        <v>29.80670475959778</v>
       </c>
       <c r="B305" t="n">
-        <v>2.063627e-06</v>
+        <v>9.914304e-05</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>29.92971181869507</v>
+        <v>29.91871118545532</v>
       </c>
       <c r="B306" t="n">
-        <v>2.06495e-06</v>
+        <v>9.919881e-05</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>30.03771805763245</v>
+        <v>30.02071690559387</v>
       </c>
       <c r="B307" t="n">
-        <v>2.066693e-06</v>
+        <v>9.915264999999999e-05</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>30.13672375679016</v>
+        <v>30.12972331047058</v>
       </c>
       <c r="B308" t="n">
-        <v>2.069602e-06</v>
+        <v>9.925856e-05</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>30.22672891616821</v>
+        <v>30.2357292175293</v>
       </c>
       <c r="B309" t="n">
-        <v>2.065066e-06</v>
+        <v>9.929523000000001e-05</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>30.31673407554626</v>
+        <v>30.30473327636719</v>
       </c>
       <c r="B310" t="n">
-        <v>2.061802e-06</v>
+        <v>9.927048e-05</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>30.4037389755249</v>
+        <v>30.41173934936523</v>
       </c>
       <c r="B311" t="n">
-        <v>2.047004e-06</v>
+        <v>9.918943e-05</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>30.50374484062195</v>
+        <v>30.50174450874329</v>
       </c>
       <c r="B312" t="n">
-        <v>2.070109e-06</v>
+        <v>9.916529e-05</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>30.60975074768066</v>
+        <v>30.60875058174133</v>
       </c>
       <c r="B313" t="n">
-        <v>2.070773e-06</v>
+        <v>9.917541e-05</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>30.70975661277771</v>
+        <v>30.71275663375854</v>
       </c>
       <c r="B314" t="n">
-        <v>2.070866e-06</v>
+        <v>9.914501e-05</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>30.81976270675659</v>
+        <v>30.80276155471802</v>
       </c>
       <c r="B315" t="n">
-        <v>2.063495e-06</v>
+        <v>9.910394e-05</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>30.90876770019531</v>
+        <v>30.90576767921448</v>
       </c>
       <c r="B316" t="n">
-        <v>2.072174e-06</v>
+        <v>9.903588e-05</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>31.0197741985321</v>
+        <v>31.01177358627319</v>
       </c>
       <c r="B317" t="n">
-        <v>2.063892e-06</v>
+        <v>9.902001e-05</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>31.12478017807007</v>
+        <v>31.10177874565125</v>
       </c>
       <c r="B318" t="n">
-        <v>2.057631e-06</v>
+        <v>9.892992e-05</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>31.20478487014771</v>
+        <v>31.20778489112854</v>
       </c>
       <c r="B319" t="n">
-        <v>2.061654e-06</v>
+        <v>9.896205e-05</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>31.31279110908508</v>
+        <v>31.3127908706665</v>
       </c>
       <c r="B320" t="n">
-        <v>2.059747e-06</v>
+        <v>9.903993e-05</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>31.42079710960388</v>
+        <v>31.40379619598389</v>
       </c>
       <c r="B321" t="n">
-        <v>2.067668e-06</v>
+        <v>9.919269e-05</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>31.51080250740051</v>
+        <v>31.50680208206177</v>
       </c>
       <c r="B322" t="n">
-        <v>2.070258e-06</v>
+        <v>9.941604e-05</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>31.6088080406189</v>
+        <v>31.62280869483948</v>
       </c>
       <c r="B323" t="n">
-        <v>2.068112e-06</v>
+        <v>9.943062e-05</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>31.7168140411377</v>
+        <v>31.73181486129761</v>
       </c>
       <c r="B324" t="n">
-        <v>2.061213e-06</v>
+        <v>9.942599000000001e-05</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>31.812819480896</v>
+        <v>31.80281901359558</v>
       </c>
       <c r="B325" t="n">
-        <v>2.060873e-06</v>
+        <v>9.931735e-05</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>31.90282464027405</v>
+        <v>31.91182518005371</v>
       </c>
       <c r="B326" t="n">
-        <v>2.062543e-06</v>
+        <v>9.924236999999999e-05</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>32.00283050537109</v>
+        <v>32.00183033943176</v>
       </c>
       <c r="B327" t="n">
-        <v>2.062542e-06</v>
+        <v>9.929095000000001e-05</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>32.10183620452881</v>
+        <v>32.11983704566956</v>
       </c>
       <c r="B328" t="n">
-        <v>2.04941e-06</v>
+        <v>9.928304999999999e-05</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>32.20484209060669</v>
+        <v>32.21584248542786</v>
       </c>
       <c r="B329" t="n">
-        <v>2.073621e-06</v>
+        <v>9.928968e-05</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>32.30484795570374</v>
+        <v>32.30684757232666</v>
       </c>
       <c r="B330" t="n">
-        <v>2.072397e-06</v>
+        <v>9.932656e-05</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>32.4118537902832</v>
+        <v>32.42085409164429</v>
       </c>
       <c r="B331" t="n">
-        <v>2.080442e-06</v>
+        <v>9.934726e-05</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>32.50185918807983</v>
+        <v>32.50185894966125</v>
       </c>
       <c r="B332" t="n">
-        <v>2.072723e-06</v>
+        <v>9.932808e-05</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>32.60486483573914</v>
+        <v>32.60686492919922</v>
       </c>
       <c r="B333" t="n">
-        <v>2.065058e-06</v>
+        <v>9.931735e-05</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>32.71087098121643</v>
+        <v>32.70787072181702</v>
       </c>
       <c r="B334" t="n">
-        <v>2.074867e-06</v>
+        <v>9.927289e-05</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>32.80087637901306</v>
+        <v>32.81487679481506</v>
       </c>
       <c r="B335" t="n">
-        <v>2.06966e-06</v>
+        <v>9.924231e-05</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>32.90388202667236</v>
+        <v>32.90588212013245</v>
       </c>
       <c r="B336" t="n">
-        <v>2.068971e-06</v>
+        <v>9.926104e-05</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>33.01088809967041</v>
+        <v>33.0208888053894</v>
       </c>
       <c r="B337" t="n">
-        <v>2.071647e-06</v>
+        <v>9.936967e-05</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>33.10089325904846</v>
+        <v>33.10089302062988</v>
       </c>
       <c r="B338" t="n">
-        <v>2.072006e-06</v>
+        <v>9.939741e-05</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>33.20389914512634</v>
+        <v>33.20889925956726</v>
       </c>
       <c r="B339" t="n">
-        <v>2.065498e-06</v>
+        <v>9.935971e-05</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>33.31090545654297</v>
+        <v>33.30690503120422</v>
       </c>
       <c r="B340" t="n">
-        <v>2.065346e-06</v>
+        <v>9.931957e-05</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>33.40991115570068</v>
+        <v>33.41491103172302</v>
       </c>
       <c r="B341" t="n">
-        <v>2.063194e-06</v>
+        <v>9.931761e-05</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>33.51991724967957</v>
+        <v>33.50591635704041</v>
       </c>
       <c r="B342" t="n">
-        <v>2.074058e-06</v>
+        <v>9.933534999999999e-05</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>33.60592198371887</v>
+        <v>33.61992287635803</v>
       </c>
       <c r="B343" t="n">
-        <v>2.068306e-06</v>
+        <v>9.930291e-05</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>33.7129282951355</v>
+        <v>33.71592831611633</v>
       </c>
       <c r="B344" t="n">
-        <v>2.071162e-06</v>
+        <v>9.933264999999999e-05</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>33.81993436813354</v>
+        <v>33.80293345451355</v>
       </c>
       <c r="B345" t="n">
-        <v>2.072554e-06</v>
+        <v>9.931131000000001e-05</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>33.9099395275116</v>
+        <v>33.91293978691101</v>
       </c>
       <c r="B346" t="n">
-        <v>2.073032e-06</v>
+        <v>9.931048e-05</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>34.00894522666931</v>
+        <v>34.0179455280304</v>
       </c>
       <c r="B347" t="n">
-        <v>2.072511e-06</v>
+        <v>9.928329e-05</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>34.11795139312744</v>
+        <v>34.1089506149292</v>
       </c>
       <c r="B348" t="n">
-        <v>2.06428e-06</v>
+        <v>9.925555e-05</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>34.21095681190491</v>
+        <v>34.22195720672607</v>
       </c>
       <c r="B349" t="n">
-        <v>2.068283e-06</v>
+        <v>9.924739999999999e-05</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>34.30096197128296</v>
+        <v>34.30196189880371</v>
       </c>
       <c r="B350" t="n">
-        <v>2.068872e-06</v>
+        <v>9.925196e-05</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>34.40896797180176</v>
+        <v>34.40796780586243</v>
       </c>
       <c r="B351" t="n">
-        <v>2.075819e-06</v>
+        <v>9.922696e-05</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>34.51197385787964</v>
+        <v>34.50797343254089</v>
       </c>
       <c r="B352" t="n">
-        <v>2.0754e-06</v>
+        <v>9.92136e-05</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>34.60197925567627</v>
+        <v>34.60897946357727</v>
       </c>
       <c r="B353" t="n">
-        <v>2.069279e-06</v>
+        <v>9.923168000000001e-05</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>34.70498514175415</v>
+        <v>34.70898509025574</v>
       </c>
       <c r="B354" t="n">
-        <v>2.071034e-06</v>
+        <v>9.93127e-05</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>34.80999112129211</v>
+        <v>34.8069908618927</v>
       </c>
       <c r="B355" t="n">
-        <v>2.069239e-06</v>
+        <v>9.930693e-05</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>34.90999674797058</v>
+        <v>34.9149968624115</v>
       </c>
       <c r="B356" t="n">
-        <v>2.074813e-06</v>
+        <v>9.930311e-05</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>35.02000308036804</v>
+        <v>35.00500202178955</v>
       </c>
       <c r="B357" t="n">
-        <v>2.078789e-06</v>
+        <v>9.929047e-05</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>35.10100769996643</v>
+        <v>35.12200880050659</v>
       </c>
       <c r="B358" t="n">
-        <v>2.079293e-06</v>
+        <v>9.920656e-05</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>35.20601367950439</v>
+        <v>35.20301365852356</v>
       </c>
       <c r="B359" t="n">
-        <v>2.08002e-06</v>
+        <v>9.918645e-05</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>35.30601930618286</v>
+        <v>35.30801939964294</v>
       </c>
       <c r="B360" t="n">
-        <v>2.081546e-06</v>
+        <v>9.91684e-05</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>35.41302561759949</v>
+        <v>35.40002465248108</v>
       </c>
       <c r="B361" t="n">
-        <v>2.085435e-06</v>
+        <v>9.911992999999999e-05</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>35.50403070449829</v>
+        <v>35.51303100585938</v>
       </c>
       <c r="B362" t="n">
-        <v>2.079127e-06</v>
+        <v>9.907242000000001e-05</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>35.60103631019592</v>
+        <v>35.60403633117676</v>
       </c>
       <c r="B363" t="n">
-        <v>2.078965e-06</v>
+        <v>9.906837999999999e-05</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>35.7090425491333</v>
+        <v>35.72204303741455</v>
       </c>
       <c r="B364" t="n">
-        <v>2.074941e-06</v>
+        <v>9.909876e-05</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>35.80204772949219</v>
+        <v>35.80304789543152</v>
       </c>
       <c r="B365" t="n">
-        <v>2.07099e-06</v>
+        <v>9.909927e-05</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>35.90305352210999</v>
+        <v>35.9080536365509</v>
       </c>
       <c r="B366" t="n">
-        <v>2.073277e-06</v>
+        <v>9.912931e-05</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>36.00105905532837</v>
+        <v>36.00005912780762</v>
       </c>
       <c r="B367" t="n">
-        <v>2.074471e-06</v>
+        <v>9.906069e-05</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>36.1030650138855</v>
+        <v>36.11306548118591</v>
       </c>
       <c r="B368" t="n">
-        <v>2.070562e-06</v>
+        <v>9.909864e-05</v>
       </c>
     </row>
     <row r="369">
@@ -3377,111 +3377,111 @@
         <v>36.20407056808472</v>
       </c>
       <c r="B369" t="n">
-        <v>2.070142e-06</v>
+        <v>9.906333000000001e-05</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>36.31007695198059</v>
+        <v>36.3000762462616</v>
       </c>
       <c r="B370" t="n">
-        <v>2.070516e-06</v>
+        <v>9.905373e-05</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>36.40008187294006</v>
+        <v>36.4030818939209</v>
       </c>
       <c r="B371" t="n">
-        <v>2.071483e-06</v>
+        <v>9.905480000000001e-05</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>36.50008749961853</v>
+        <v>36.50708794593811</v>
       </c>
       <c r="B372" t="n">
-        <v>2.072916e-06</v>
+        <v>9.905644e-05</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>36.61409425735474</v>
+        <v>36.61009383201599</v>
       </c>
       <c r="B373" t="n">
-        <v>2.070084e-06</v>
+        <v>9.903342e-05</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>36.70609951019287</v>
+        <v>36.71209979057312</v>
       </c>
       <c r="B374" t="n">
-        <v>2.069268e-06</v>
+        <v>9.899347e-05</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>36.81910610198975</v>
+        <v>36.80310487747192</v>
       </c>
       <c r="B375" t="n">
-        <v>2.072956e-06</v>
+        <v>9.897012e-05</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>36.90011048316956</v>
+        <v>36.90711092948914</v>
       </c>
       <c r="B376" t="n">
-        <v>2.073407e-06</v>
+        <v>9.898197000000001e-05</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>37.00611662864685</v>
+        <v>37.01411700248718</v>
       </c>
       <c r="B377" t="n">
-        <v>2.074258e-06</v>
+        <v>9.901001e-05</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>37.10712242126465</v>
+        <v>37.10612225532532</v>
       </c>
       <c r="B378" t="n">
-        <v>2.074994e-06</v>
+        <v>9.897668e-05</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>37.21312856674194</v>
+        <v>37.20112776756287</v>
       </c>
       <c r="B379" t="n">
-        <v>2.071291e-06</v>
+        <v>9.892226e-05</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>37.30413365364075</v>
+        <v>37.30313372612</v>
       </c>
       <c r="B380" t="n">
-        <v>2.065541e-06</v>
+        <v>9.883355000000001e-05</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>37.42014026641846</v>
+        <v>37.40513944625854</v>
       </c>
       <c r="B381" t="n">
-        <v>2.078715e-06</v>
+        <v>9.885302e-05</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>37.50314497947693</v>
+        <v>37.52214598655701</v>
       </c>
       <c r="B382" t="n">
-        <v>2.069203e-06</v>
+        <v>9.849203999999999e-05</v>
       </c>
     </row>
     <row r="383">
@@ -3489,47 +3489,47 @@
         <v>37.60615086555481</v>
       </c>
       <c r="B383" t="n">
-        <v>2.071324e-06</v>
+        <v>9.857393e-05</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>37.71815729141235</v>
+        <v>37.73115801811218</v>
       </c>
       <c r="B384" t="n">
-        <v>2.063639e-06</v>
+        <v>9.863995e-05</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>37.80816245079041</v>
+        <v>37.80416226387024</v>
       </c>
       <c r="B385" t="n">
-        <v>2.062613e-06</v>
+        <v>9.85919e-05</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>37.90216779708862</v>
+        <v>37.91516852378845</v>
       </c>
       <c r="B386" t="n">
-        <v>2.066628e-06</v>
+        <v>9.857123e-05</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>38.00217366218567</v>
+        <v>38.00717377662659</v>
       </c>
       <c r="B387" t="n">
-        <v>2.063319e-06</v>
+        <v>9.851169e-05</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>38.10917973518372</v>
+        <v>38.12418031692505</v>
       </c>
       <c r="B388" t="n">
-        <v>2.062775e-06</v>
+        <v>9.862136e-05</v>
       </c>
     </row>
     <row r="389">
@@ -3537,135 +3537,135 @@
         <v>38.20618510246277</v>
       </c>
       <c r="B389" t="n">
-        <v>2.058872e-06</v>
+        <v>9.849997999999999e-05</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>38.3031907081604</v>
+        <v>38.30419063568115</v>
       </c>
       <c r="B390" t="n">
-        <v>2.054544e-06</v>
+        <v>9.859971e-05</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>38.41019701957703</v>
+        <v>38.40819668769836</v>
       </c>
       <c r="B391" t="n">
-        <v>2.052474e-06</v>
+        <v>9.855845000000001e-05</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>38.50320219993591</v>
+        <v>38.50720238685608</v>
       </c>
       <c r="B392" t="n">
-        <v>2.051804e-06</v>
+        <v>9.805085e-05</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>38.61220836639404</v>
+        <v>38.62720918655396</v>
       </c>
       <c r="B393" t="n">
-        <v>2.054194e-06</v>
+        <v>9.774412e-05</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>38.71621441841125</v>
+        <v>38.73621535301208</v>
       </c>
       <c r="B394" t="n">
-        <v>2.052682e-06</v>
+        <v>9.789612999999999e-05</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>38.80721974372864</v>
+        <v>38.84222149848938</v>
       </c>
       <c r="B395" t="n">
-        <v>2.052986e-06</v>
+        <v>9.79593e-05</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>38.91922616958618</v>
+        <v>38.91122555732727</v>
       </c>
       <c r="B396" t="n">
-        <v>2.054688e-06</v>
+        <v>9.796062000000001e-05</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>39.0012309551239</v>
+        <v>39.00023055076599</v>
       </c>
       <c r="B397" t="n">
-        <v>2.051924e-06</v>
+        <v>9.790511e-05</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>39.10723686218262</v>
+        <v>39.10023617744446</v>
       </c>
       <c r="B398" t="n">
-        <v>2.055831e-06</v>
+        <v>9.79144e-05</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>39.21824312210083</v>
+        <v>39.20624232292175</v>
       </c>
       <c r="B399" t="n">
-        <v>2.053872e-06</v>
+        <v>9.801991999999999e-05</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>39.30924820899963</v>
+        <v>39.3062481880188</v>
       </c>
       <c r="B400" t="n">
-        <v>2.052392e-06</v>
+        <v>9.812412000000001e-05</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>39.42925524711609</v>
+        <v>39.41225409507751</v>
       </c>
       <c r="B401" t="n">
-        <v>2.049884e-06</v>
+        <v>9.824889000000001e-05</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>39.50925970077515</v>
+        <v>39.50225949287415</v>
       </c>
       <c r="B402" t="n">
-        <v>2.04978e-06</v>
+        <v>9.829584e-05</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>39.61526584625244</v>
+        <v>39.61926603317261</v>
       </c>
       <c r="B403" t="n">
-        <v>2.05017e-06</v>
+        <v>9.828645e-05</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>39.70527100563049</v>
+        <v>39.72327184677124</v>
       </c>
       <c r="B404" t="n">
-        <v>2.053378e-06</v>
+        <v>9.835972999999999e-05</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>39.81927752494812</v>
+        <v>39.8312783241272</v>
       </c>
       <c r="B405" t="n">
-        <v>2.05325e-06</v>
+        <v>9.8278e-05</v>
       </c>
     </row>
     <row r="406">
@@ -3673,7 +3673,7 @@
         <v>39.90028214454651</v>
       </c>
       <c r="B406" t="n">
-        <v>2.052012e-06</v>
+        <v>9.829208000000001e-05</v>
       </c>
     </row>
     <row r="407">
@@ -3681,7 +3681,7 @@
         <v>40.00528812408447</v>
       </c>
       <c r="B407" t="n">
-        <v>2.047583e-06</v>
+        <v>9.817429000000001e-05</v>
       </c>
     </row>
   </sheetData>
